--- a/my-app/public/template_selections_부산.xlsx
+++ b/my-app/public/template_selections_부산.xlsx
@@ -397,13 +397,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>customerName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>weddingDate</v>
+      </c>
+      <c r="C1" t="str">
+        <v>branch</v>
+      </c>
+      <c r="D1" t="str">
+        <v>groomNameEn</v>
+      </c>
+      <c r="E1" t="str">
+        <v>brideNameEn</v>
+      </c>
+      <c r="F1" t="str">
+        <v>templateName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>submittedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ㅇㅇㅇㅇㅇㅇㅇㅇㅇ</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="C2" t="str">
+        <v>부산</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ㅇㅇ</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Wedding Template 08</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2026. 1. 16. 오전 10:26:29</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>